--- a/biology/Zoologie/Coucou_émeraude/Coucou_émeraude.xlsx
+++ b/biology/Zoologie/Coucou_émeraude/Coucou_émeraude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A9meraude</t>
+          <t>Coucou_émeraude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysococcyx maculatus
 Le Coucou émeraude (Chrysococcyx maculatus) est une espèce d'oiseau de la famille des Cuculidae. C'est une espèce monotypique (non subdivisée en sous-espèces).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A9meraude</t>
+          <t>Coucou_émeraude</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le Sri Lanka, l’Inde, le Népal, le Bhoutan, le Bangladesh, la Birmanie, la Chine, le Viêt Nam, le Cambodge, le Laos, la Thaïlande, la Malaisie, et l’Indonésie, le Timor oriental.
 </t>
